--- a/vendor_selection_siem_101_v1.0.xlsx
+++ b/vendor_selection_siem_101_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdilucchio\github\siem101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3251CAB1-B6BF-49E4-B66F-D6B6C36B62B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9501FCB-B9B7-4CBF-AF38-D43A9CC51297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38055" yWindow="3465" windowWidth="9600" windowHeight="4905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Questions</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>Firewall, IPS, IDS, Endpoint security, Cloud workloads, VPN logs, email, web security gateways, Databases, custom enterprise applications, SAAS solutions like Gsuite, Dropbox, Ticketing systems</t>
+  </si>
+  <si>
+    <t>What does my organization want to get out of SIEM?</t>
+  </si>
+  <si>
+    <t>This single question contains innumerable subquestions: What data sources do you need to log? Do you need real-time collection? Do you need to collect all of the security data you generate or just a subset? What do you need to archive to achieve adequate compliance? For how long? How will you use the data once collected? For forensics? Detecting threats? Auditing and Compliance? It’s important to understand your use case in detail before implementing an SIEM solution.</t>
+  </si>
+  <si>
+    <t>What is the approach for finding false negatives – and what adversary techniques, behaviors, and threats are currently being missed?</t>
   </si>
 </sst>
 </file>
@@ -454,7 +463,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -523,16 +532,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
@@ -557,6 +560,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -856,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8E90BE-21A1-4B6E-A847-224B64BBA714}">
-  <dimension ref="A1:BG35"/>
+  <dimension ref="A1:BG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -938,7 +953,7 @@
       <c r="BG1" s="4"/>
     </row>
     <row r="2" spans="1:59" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1"/>
@@ -949,8 +964,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:59" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="35"/>
+    <row r="3" spans="1:59" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="33"/>
       <c r="B3" s="2"/>
       <c r="C3" s="14" t="s">
         <v>8</v>
@@ -959,241 +974,253 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A4" s="35"/>
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:59" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="A6" s="33"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="A7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A6" s="35"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="15" t="s">
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="A8" s="33"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D8" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A7" s="35"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="15" t="s">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="A9" s="33"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:59" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
-      <c r="B8" s="37" t="s">
+    <row r="10" spans="1:59" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="33"/>
+      <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:59" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="20" t="s">
+    <row r="11" spans="1:59" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="33"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A10" s="35"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="19" t="s">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="A12" s="33"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A11" s="36"/>
-      <c r="B11" s="29" t="s">
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="A13" s="34"/>
+      <c r="B13" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="19" t="s">
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="A14" s="34"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A13" s="36"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="19" t="s">
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="A15" s="34"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A14" s="36"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="19" t="s">
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="A16" s="34"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A15" s="36"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="19" t="s">
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="34"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:59" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="35"/>
-      <c r="B16" s="28" t="s">
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="33"/>
+      <c r="B18" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="35"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="20" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="33"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="20" t="s">
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="33"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="20" t="s">
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="33"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="19" t="s">
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="33"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="20" t="s">
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="33"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="20" t="s">
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="33"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="35"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="20" t="s">
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="33"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="35"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="16" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="33"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="36"/>
-      <c r="B25" s="30" t="s">
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="34"/>
+      <c r="B27" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C27" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="17"/>
-    </row>
-    <row r="26" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="22"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="23" t="s">
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="22"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D28" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="32" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="21" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="24"/>
-    </row>
-    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="32"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="21" t="s">
+      <c r="D29" s="24"/>
+    </row>
+    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="30"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D30" s="18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C31" s="10"/>
@@ -1210,26 +1237,32 @@
     <row r="35" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C35" s="10"/>
     </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C37" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A5:A25"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A7:A27"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="B13:B17"/>
   </mergeCells>
-  <conditionalFormatting sqref="D17:D21 B16:D16 C2:D9 D10:D15">
+  <conditionalFormatting sqref="D19:D23 B18:D18 D12:D17 C2:D11">
     <cfRule type="expression" dxfId="1" priority="6">
       <formula>AND($F2=0,$F2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B9">
+  <conditionalFormatting sqref="B10:B11">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND($F8=0,$F8&lt;&gt;"")</formula>
+      <formula>AND($F10=0,$F10&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
